--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AE/10/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AE/10/seed4/result_data_RandomForest.xlsx
@@ -559,7 +559,7 @@
         <v>-9.359999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>16.08910000000001</v>
+        <v>16.0883</v>
       </c>
     </row>
     <row r="8">
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.9724</v>
+        <v>-21.9657</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
@@ -644,7 +644,7 @@
         <v>-6.85</v>
       </c>
       <c r="E12" t="n">
-        <v>18.16700000000003</v>
+        <v>18.05830000000002</v>
       </c>
     </row>
     <row r="13">
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.30790000000002</v>
+        <v>-22.34610000000001</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-20.41229999999998</v>
+        <v>-20.55309999999998</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -882,12 +882,12 @@
         <v>-9.31</v>
       </c>
       <c r="E26" t="n">
-        <v>16.0733</v>
+        <v>16.1223</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-22.2471</v>
+        <v>-22.0963</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -899,7 +899,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.70979999999998</v>
+        <v>16.68479999999998</v>
       </c>
     </row>
     <row r="28">
@@ -933,7 +933,7 @@
         <v>-7.09</v>
       </c>
       <c r="E29" t="n">
-        <v>17.05100000000002</v>
+        <v>16.94150000000001</v>
       </c>
     </row>
     <row r="30">
@@ -1069,7 +1069,7 @@
         <v>-7.88</v>
       </c>
       <c r="E37" t="n">
-        <v>16.70260000000001</v>
+        <v>16.74050000000001</v>
       </c>
     </row>
     <row r="38">
@@ -1086,7 +1086,7 @@
         <v>-9.09</v>
       </c>
       <c r="E38" t="n">
-        <v>16.4498</v>
+        <v>16.431</v>
       </c>
     </row>
     <row r="39">
@@ -1307,7 +1307,7 @@
         <v>-7.18</v>
       </c>
       <c r="E51" t="n">
-        <v>17.27510000000002</v>
+        <v>17.30840000000001</v>
       </c>
     </row>
     <row r="52">
@@ -1375,7 +1375,7 @@
         <v>-10.06</v>
       </c>
       <c r="E55" t="n">
-        <v>16.44860000000001</v>
+        <v>16.51030000000001</v>
       </c>
     </row>
     <row r="56">
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.61419999999999</v>
+        <v>-21.68309999999998</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1613,7 +1613,7 @@
         <v>-6.88</v>
       </c>
       <c r="E69" t="n">
-        <v>17.29170000000003</v>
+        <v>17.38780000000002</v>
       </c>
     </row>
     <row r="70">
@@ -1630,7 +1630,7 @@
         <v>-7.03</v>
       </c>
       <c r="E70" t="n">
-        <v>18.12650000000002</v>
+        <v>18.08940000000002</v>
       </c>
     </row>
     <row r="71">
@@ -1720,7 +1720,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-19.69759999999999</v>
+        <v>-19.99319999999998</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.9831</v>
+        <v>-22.0505</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1851,7 +1851,7 @@
         <v>-7.67</v>
       </c>
       <c r="E83" t="n">
-        <v>16.543</v>
+        <v>16.55099999999999</v>
       </c>
     </row>
     <row r="84">
@@ -2174,7 +2174,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.82699999999999</v>
+        <v>16.8121</v>
       </c>
     </row>
   </sheetData>
